--- a/results/mp/tinybert/corona/confidence/210/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
@@ -52,61 +49,61 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>nice</t>
@@ -115,76 +112,61 @@
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>important</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -196,64 +178,79 @@
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>$</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
+    <t>of</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>.</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>.</t>
+    <t>is</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -611,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -730,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7402597402597403</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.72</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4642857142857143</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>421</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8461538461538461</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4166666666666667</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3684210526315789</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8181818181818182</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3648068669527897</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2558139534883721</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,605 +1295,461 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>64</v>
+        <v>335</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L15">
+        <v>104</v>
+      </c>
+      <c r="M15">
+        <v>104</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L17">
+        <v>73</v>
+      </c>
+      <c r="M17">
+        <v>73</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.675</v>
+      </c>
+      <c r="L19">
+        <v>108</v>
+      </c>
+      <c r="M19">
+        <v>108</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K15">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L15">
+      <c r="K21">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L21">
+        <v>60</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.62</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>31</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L24">
         <v>39</v>
       </c>
-      <c r="M15">
+      <c r="M24">
         <v>39</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.5625</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C16">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.5326370757180157</v>
+      </c>
+      <c r="L27">
+        <v>204</v>
+      </c>
+      <c r="M27">
+        <v>204</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.5168539325842697</v>
+      </c>
+      <c r="L28">
+        <v>46</v>
+      </c>
+      <c r="M28">
+        <v>46</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.4911764705882353</v>
+      </c>
+      <c r="L29">
+        <v>167</v>
+      </c>
+      <c r="M29">
+        <v>167</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.475</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L31">
         <v>30</v>
       </c>
-      <c r="D16">
+      <c r="M31">
         <v>30</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>105</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L16">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.175</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1521739130434783</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>39</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L19">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>43</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>96</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <v>19</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.05376344086021505</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>176</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L21">
-        <v>27</v>
-      </c>
-      <c r="M21">
-        <v>27</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>20</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.68</v>
-      </c>
-      <c r="L24">
-        <v>17</v>
-      </c>
-      <c r="M24">
-        <v>17</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L25">
-        <v>22</v>
-      </c>
-      <c r="M25">
-        <v>22</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K26">
-        <v>0.625</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.6</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>0.568075117370892</v>
-      </c>
-      <c r="L28">
-        <v>121</v>
-      </c>
-      <c r="M28">
-        <v>121</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="L30">
-        <v>76</v>
-      </c>
-      <c r="M30">
-        <v>76</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L31">
-        <v>18</v>
-      </c>
-      <c r="M31">
-        <v>18</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K32">
-        <v>0.4883720930232558</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L32">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="M32">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1908,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4666666666666667</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1934,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4565217391304348</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1960,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.45</v>
+        <v>0.234375</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1986,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4285714285714285</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2012,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4210526315789473</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2038,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.4090909090909091</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2064,47 +1917,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.03695408734602464</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>860</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.32</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2116,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.2631578947368421</v>
+        <v>0.03083333333333333</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2142,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.21875</v>
+        <v>0.02559414990859232</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2168,47 +2021,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>25</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.1481481481481481</v>
+        <v>0.02228976697061803</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.02192982456140351</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2220,47 +2073,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>446</v>
+        <v>882</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.01951219512195122</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="L45">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.01643192488262911</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2272,47 +2125,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>419</v>
+        <v>853</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.0109717868338558</v>
+        <v>0.01609281437125748</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.009719222462203024</v>
+        <v>0.01400778210116732</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>0.82</v>
@@ -2324,21 +2177,21 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>917</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.009169054441260744</v>
+        <v>0.0135450723960766</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>0.9399999999999999</v>
@@ -2350,137 +2203,267 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1729</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.008412197686645636</v>
+        <v>0.01319095477386935</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="O50">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>943</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.008403361344537815</v>
+        <v>0.0130581297388374</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N51">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O51">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>826</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.007462686567164179</v>
+        <v>0.01248843663274746</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>931</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.005741127348643006</v>
+        <v>0.01101983570426768</v>
       </c>
       <c r="L53">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M53">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>1905</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.003522898842476095</v>
+        <v>0.01040312093628088</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N54">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="O54">
-        <v>0.22</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1980</v>
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55">
+        <v>0.01027146001467351</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="L56">
+        <v>29</v>
+      </c>
+      <c r="M56">
+        <v>33</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57">
+        <v>0.007421150278293136</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>18</v>
+      </c>
+      <c r="N57">
+        <v>0.89</v>
+      </c>
+      <c r="O57">
+        <v>0.11</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58">
+        <v>0.007362914163921721</v>
+      </c>
+      <c r="L58">
+        <v>38</v>
+      </c>
+      <c r="M58">
+        <v>42</v>
+      </c>
+      <c r="N58">
+        <v>0.9</v>
+      </c>
+      <c r="O58">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59">
+        <v>0.004693366708385482</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>0.75</v>
+      </c>
+      <c r="O59">
+        <v>0.25</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3181</v>
       </c>
     </row>
   </sheetData>
